--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,43 +441,531 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/arrondissement</t>
+          <t>http://dbpedia.org/ontology/deathPlace</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/parent</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/deathDate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/birthDate</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/birthPlace</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Andenne</t>
+          <t>http://dbpedia.org/resource/Giovanni_Francesco_Guidi_di_Bagno</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Arrondissement_of_Namur </t>
+          <t>http://dbpedia.org/resource/Rome</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Colonna_family</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1641</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1578-10-04 </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Florence http://dbpedia.org/resource/Grand_Duchy_of_Tuscany </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Dinant</t>
+          <t>http://dbpedia.org/resource/Giovanni_Doria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Arrondissement_of_Dinant </t>
-        </is>
-      </c>
+          <t>http://dbpedia.org/resource/Palermo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Giovanni_Andrea_Doria</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1642</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Anhée</t>
+          <t>http://dbpedia.org/resource/George_Murray_(bishop_of_Rochester)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Arrondissement_of_Dinant </t>
+          <t>http://dbpedia.org/resource/Chester_Square</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Lord_George_Murray_(bishop)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1860</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1784-01-12 </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Farnham http://dbpedia.org/resource/Surrey </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Geoffrey_(archbishop_of_York)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Normandy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Henry_II_of_England</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/12-12-12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Ferdinand_III_of_Castile</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Crown_of_Castile</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Alfonso_IX_of_León</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1252</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Erik_Benzelius_the_younger</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Linköping</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Erik_Benzelius_the_Elder</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1743</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1675-01-27 </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Uppsala http://dbpedia.org/resource/Sweden </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Edward_the_Confessor</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/London</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Æthelred_the_Unready</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1066</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Edward_William_Grinfield</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Brighton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Thomas_Grinfield</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1864</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Edward_Francis_Wilson</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Saltspring_Island</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Daniel_Wilson_(bishop)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1915</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1844-12-07 </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/England http://dbpedia.org/resource/Islington </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Donald_Foster_Hudson</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/England</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Father</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/2003</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1916-04-29 </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Halifax,_West_Yorkshire http://dbpedia.org/resource/England http://dbpedia.org/resource/West_Riding_of_Yorkshire </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Dick_Sheppard_(priest)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/City_of_London </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Edgar_Sheppard </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1937-10-31 </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1880</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Windsor</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Claus_Westermann</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Heidelberg http://dbpedia.org/resource/Germany </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Mother http://dbpedia.org/resource/Father </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2000-06-11 </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1909</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Charles_Januarius_Acton</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Naples </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Sir_John_Acton,_6th_Baronet </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1847-06-23 </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1803</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Naples</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Carlo_Barberini</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Rome </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Taddeo_Barberini http://dbpedia.org/resource/Anna_Colonna </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1704-10-02 </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1630</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Rome</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Cardinal_de_Bouillon</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Rome </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Frédéric_Maurice_de_La_Tour_d'Auvergne,_Duc_de_Bouillon </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1715-03-02 </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1643</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/France</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Camillo_Francesco_Maria_Pamphili</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Rome </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Olimpia_Maidalchini </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1666-07-26 </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1622</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Naples</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Benjamin_Hoadly</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Middlesex http://dbpedia.org/resource/Great_Britain http://dbpedia.org/resource/Chelsea,_London </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Samuel_Hoadly </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1761-04-17 </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1676</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Kent</t>
         </is>
       </c>
     </row>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>http://dbpedia.org/ontology/birthDate</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/ontology/birthPlace</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -491,11 +486,6 @@
           <t xml:space="preserve">1578-10-04 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Florence http://dbpedia.org/resource/Grand_Duchy_of_Tuscany </t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,8 +508,11 @@
           <t>http://dbpedia.org/resource/1642</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -547,11 +540,6 @@
           <t xml:space="preserve">1784-01-12 </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Farnham http://dbpedia.org/resource/Surrey </t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -574,8 +562,11 @@
           <t>http://dbpedia.org/resource/12-12-12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -598,8 +589,11 @@
           <t>http://dbpedia.org/resource/1252</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -627,11 +621,6 @@
           <t xml:space="preserve">1675-01-27 </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Uppsala http://dbpedia.org/resource/Sweden </t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -654,8 +643,11 @@
           <t>http://dbpedia.org/resource/1066</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,8 +670,11 @@
           <t>http://dbpedia.org/resource/1864</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -707,11 +702,6 @@
           <t xml:space="preserve">1844-12-07 </t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/England http://dbpedia.org/resource/Islington </t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -737,235 +727,6 @@
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">1916-04-29 </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Halifax,_West_Yorkshire http://dbpedia.org/resource/England http://dbpedia.org/resource/West_Riding_of_Yorkshire </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Dick_Sheppard_(priest)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/City_of_London </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Edgar_Sheppard </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1937-10-31 </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1880</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Windsor</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Claus_Westermann</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Heidelberg http://dbpedia.org/resource/Germany </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Mother http://dbpedia.org/resource/Father </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2000-06-11 </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1909</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Berlin</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Charles_Januarius_Acton</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Naples </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Sir_John_Acton,_6th_Baronet </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1847-06-23 </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1803</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Naples</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Carlo_Barberini</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Rome </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Taddeo_Barberini http://dbpedia.org/resource/Anna_Colonna </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1704-10-02 </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1630</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Rome</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Cardinal_de_Bouillon</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Rome </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Frédéric_Maurice_de_La_Tour_d'Auvergne,_Duc_de_Bouillon </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1715-03-02 </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1643</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/France</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Camillo_Francesco_Maria_Pamphili</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Rome </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Olimpia_Maidalchini </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1666-07-26 </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1622</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Naples</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Benjamin_Hoadly</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Middlesex http://dbpedia.org/resource/Great_Britain http://dbpedia.org/resource/Chelsea,_London </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Samuel_Hoadly </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1761-04-17 </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1676</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Kent</t>
         </is>
       </c>
     </row>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>http://dbpedia.org/ontology/birthDate</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/birthPlace</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,11 @@
           <t xml:space="preserve">1578-10-04 </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Florence http://dbpedia.org/resource/Grand_Duchy_of_Tuscany </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +555,11 @@
           <t xml:space="preserve">1784-01-12 </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Farnham http://dbpedia.org/resource/Surrey </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +587,11 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +619,11 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +651,11 @@
           <t xml:space="preserve">1675-01-27 </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Uppsala http://dbpedia.org/resource/Sweden </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +683,11 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +715,11 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +747,11 @@
           <t xml:space="preserve">1844-12-07 </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/England http://dbpedia.org/resource/Islington </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -727,6 +777,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">1916-04-29 </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Halifax,_West_Yorkshire http://dbpedia.org/resource/England http://dbpedia.org/resource/West_Riding_of_Yorkshire </t>
         </is>
       </c>
     </row>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,347 +441,131 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/deathPlace</t>
+          <t>http://dbpedia.org/ontology/birthYear</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/parent</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/ontology/deathDate</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/ontology/birthDate</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/ontology/birthPlace</t>
+          <t>http://dbpedia.org/ontology/deathYear</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Francesco_Guidi_di_Bagno</t>
+          <t>http://dbpedia.org/resource/John_Belushi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Rome</t>
+          <t xml:space="preserve">1949 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Colonna_family</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1641</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1578-10-04 </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Florence http://dbpedia.org/resource/Grand_Duchy_of_Tuscany </t>
+          <t xml:space="preserve">1982 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Doria</t>
+          <t>http://dbpedia.org/resource/Ingmar_Bergman</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Palermo</t>
+          <t xml:space="preserve">1918 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Andrea_Doria</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1642</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t xml:space="preserve">2007 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/George_Murray_(bishop_of_Rochester)</t>
+          <t>http://dbpedia.org/resource/Ingrid_Bergman</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Chester_Square</t>
+          <t xml:space="preserve">1915 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Lord_George_Murray_(bishop)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1860</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1784-01-12 </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Farnham http://dbpedia.org/resource/Surrey </t>
+          <t xml:space="preserve">1982 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Geoffrey_(archbishop_of_York)</t>
+          <t>http://dbpedia.org/resource/Humphrey_Bogart</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Normandy</t>
+          <t xml:space="preserve">1899 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Henry_II_of_England</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/12-12-12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t xml:space="preserve">1957 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Ferdinand_III_of_Castile</t>
+          <t>http://dbpedia.org/resource/Marlon_Brando</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Crown_of_Castile</t>
+          <t xml:space="preserve">1924 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Alfonso_IX_of_León</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1252</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t xml:space="preserve">2004 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Erik_Benzelius_the_younger</t>
+          <t>http://dbpedia.org/resource/Richard_Burton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Linköping</t>
+          <t xml:space="preserve">1925 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Erik_Benzelius_the_Elder</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1743</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1675-01-27 </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Uppsala http://dbpedia.org/resource/Sweden </t>
+          <t xml:space="preserve">1984 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Edward_the_Confessor</t>
+          <t>http://dbpedia.org/resource/James_Cagney</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/London</t>
+          <t xml:space="preserve">1899 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Æthelred_the_Unready</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1066</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Edward_William_Grinfield</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Brighton</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Thomas_Grinfield</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1864</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Edward_Francis_Wilson</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Saltspring_Island</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Daniel_Wilson_(bishop)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1915</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1844-12-07 </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/England http://dbpedia.org/resource/Islington </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Donald_Foster_Hudson</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/England</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Father</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/2003</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1916-04-29 </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Halifax,_West_Yorkshire http://dbpedia.org/resource/England http://dbpedia.org/resource/West_Riding_of_Yorkshire </t>
+          <t xml:space="preserve">1986 </t>
         </is>
       </c>
     </row>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,131 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/birthYear</t>
+          <t>http://dbpedia.org/ontology/deathPlace</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/deathYear</t>
+          <t>http://dbpedia.org/ontology/parent</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/deathDate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/birthDate</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/birthPlace</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/associateStar</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/fastestLap</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/John_Belushi</t>
+          <t>http://dbpedia.org/resource/Giovanni_Francesco_Guidi_di_Bagno</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1949 </t>
+          <t>http://dbpedia.org/resource/Rome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1982 </t>
+          <t>http://dbpedia.org/resource/Colonna_family</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1641</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1578-10-04 </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Florence http://dbpedia.org/resource/Grand_Duchy_of_Tuscany </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Ingmar_Bergman</t>
+          <t>http://dbpedia.org/resource/Giovanni_Doria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1918 </t>
+          <t>http://dbpedia.org/resource/Palermo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2007 </t>
+          <t>http://dbpedia.org/resource/Giovanni_Andrea_Doria</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1642</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Ingrid_Bergman</t>
+          <t>http://dbpedia.org/resource/Dick_Sheppard_(priest)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1915 </t>
+          <t xml:space="preserve">http://dbpedia.org/resource/City_of_London </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1982 </t>
+          <t xml:space="preserve">http://dbpedia.org/resource/Edgar_Sheppard </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1937-10-31 </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1880</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Windsor</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Humphrey_Bogart</t>
+          <t>http://dbpedia.org/resource/Claus_Westermann</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1899 </t>
+          <t xml:space="preserve">http://dbpedia.org/resource/Heidelberg http://dbpedia.org/resource/Germany </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1957 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Marlon_Brando</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1924 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2004 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Richard_Burton</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1925 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1984 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/James_Cagney</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1899 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1986 </t>
+          <t xml:space="preserve">http://dbpedia.org/resource/Mother http://dbpedia.org/resource/Father </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2000-06-11 </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1909</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Berlin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/fastestLap</t>
+          <t>http://dbpedia.org/ontology/fastestDriverTeam</t>
         </is>
       </c>
     </row>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/associateStar</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/ontology/fastestDriverTeam</t>
+          <t>http://dbpedia.org/ontology/fastestDriverCountry</t>
         </is>
       </c>
     </row>
@@ -511,11 +506,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -545,11 +535,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,11 +572,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,11 +605,6 @@
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/fastestDriverCountry</t>
+          <t>http://dbpedia.org/ontology/contest</t>
         </is>
       </c>
     </row>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>File1.csv-COL2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>http://dbpedia.org/ontology/birthYear</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>http://dbpedia.org/ontology/deathYear</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>File1.csv-COL5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>File1.csv-COL6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>File1.csv-COL7</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>File1.csv-COL8</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>http://purl.org/linguistics/gold/hypernym</t>
         </is>
       </c>
     </row>
@@ -458,12 +488,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1949 </t>
+          <t>nm0000004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1982 </t>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Actor</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Soundtrack</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Writer</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>tt0080455,tt0078723,tt0077975,tt0072562</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Comedian </t>
         </is>
       </c>
     </row>
@@ -475,12 +535,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1918 </t>
+          <t>nm0000005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2007 </t>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Writer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Director</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Actor</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>tt0050986,tt0050976,tt0083922,tt0060827</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Director </t>
         </is>
       </c>
     </row>
@@ -492,12 +582,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1915 </t>
+          <t>nm0000006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1982 </t>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Actress_(film)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Soundtrack</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Producer</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>tt0034583,tt0077711,tt0038109,tt0036855</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Actress </t>
         </is>
       </c>
     </row>
@@ -509,12 +629,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1899 </t>
+          <t>nm0000007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1957 </t>
+          <t>1899</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Actor</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Soundtrack</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Producer</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>tt0033870,tt0034583,tt0042593,tt0043265</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Actor </t>
         </is>
       </c>
     </row>
@@ -526,12 +676,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1924 </t>
+          <t>nm0000008</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2004 </t>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Actor</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Soundtrack</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Director</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>tt0078788,tt0070849,tt0068646,tt0047296</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -543,12 +723,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1925 </t>
+          <t>nm0000009</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1984 </t>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Actor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Soundtrack</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Producer</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>tt0061184,tt0059749,tt0087803,tt0057877</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://dbpedia.org/resource/Stage </t>
         </is>
       </c>
     </row>
@@ -560,12 +770,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1899 </t>
+          <t>nm0000010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1986 </t>
+          <t>1899</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Actor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Soundtrack</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Director</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>tt0042041,tt0029870,tt0031867,tt0035575</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>

--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,172 +441,352 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/deathPlace</t>
+          <t>test1.csv-COL2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/parent</t>
+          <t>test1.csv-COL3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/deathDate</t>
+          <t>test1.csv-COL4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/birthDate</t>
+          <t>http://dbpedia.org/ontology/percentage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/birthPlace</t>
+          <t>test1.csv-COL6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/contest</t>
+          <t>http://dbpedia.org/ontology/populationTotal</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>test2.csv-COL2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>test2.csv-COL3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/weight</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>test3.csv-COL3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>test3.csv-COL4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>test3.csv-COL5</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Francesco_Guidi_di_Bagno</t>
+          <t>http://dbpedia.org/resource/Terp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Rome</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Colonna_family</t>
+          <t>92136</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1641</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1578-10-04 </t>
+          <t>54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Florence http://dbpedia.org/resource/Grand_Duchy_of_Tuscany </t>
+          <t>http://dbpedia.org/resource/WD</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/A1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>92094046</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>92044</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Terp</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4.605</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Doria</t>
+          <t>http://dbpedia.org/resource/Terp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Palermo</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Andrea_Doria</t>
+          <t>92136</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1642</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/WD</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>92044</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Terp</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>4.605</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Dick_Sheppard_(priest)</t>
+          <t>http://dbpedia.org/resource/Flawinne</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/City_of_London </t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Edgar_Sheppard </t>
+          <t>92043</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1937-10-31 </t>
+          <t>5020</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1880</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Windsor</t>
+          <t>http://dbpedia.org/resource/FW</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>92043</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Flawinne</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5020</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6.742</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Claus_Westermann</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Heidelberg http://dbpedia.org/resource/Germany </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://dbpedia.org/resource/Mother http://dbpedia.org/resource/Father </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2000-06-11 </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1909</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Berlin</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>http://dbpedia.org/resource/Citadelle</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>92075</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Citadelle</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>5101</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3.315</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Flawinne</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>92043</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Flawinne</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5020</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6.742</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Terp</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>92044</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Terp</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4.605</t>
         </is>
       </c>
     </row>
